--- a/teaching/traditional_assets/database/data/morocco/morocco_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/morocco/morocco_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0242</v>
+        <v>-0.015675</v>
       </c>
       <c r="E2">
-        <v>0.0443</v>
+        <v>-0.0513</v>
       </c>
       <c r="G2">
-        <v>0.0005073388640714742</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>34.62</v>
+        <v>13.16</v>
       </c>
       <c r="L2">
-        <v>0.05523292916400765</v>
+        <v>0.03440522875816993</v>
       </c>
       <c r="M2">
-        <v>31.6</v>
+        <v>17.973</v>
       </c>
       <c r="N2">
-        <v>0.05336035123269166</v>
+        <v>0.0610703363914373</v>
       </c>
       <c r="O2">
-        <v>0.9127671865973427</v>
+        <v>1.365729483282675</v>
       </c>
       <c r="P2">
-        <v>31.6</v>
+        <v>17.973</v>
       </c>
       <c r="Q2">
-        <v>0.05336035123269166</v>
+        <v>0.0610703363914373</v>
       </c>
       <c r="R2">
-        <v>0.9127671865973427</v>
+        <v>1.365729483282675</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.203</v>
+        <v>0.006</v>
       </c>
       <c r="V2">
-        <v>0.000342789598108747</v>
+        <v>2.038735983690112e-05</v>
       </c>
       <c r="W2">
-        <v>0.08750000000000001</v>
+        <v>0.06621547029856485</v>
       </c>
       <c r="X2">
-        <v>0.05117465690787396</v>
+        <v>0.05501979681991646</v>
       </c>
       <c r="Y2">
-        <v>0.03632534309212605</v>
+        <v>0.01119567347864839</v>
       </c>
       <c r="Z2">
-        <v>0.3152162761833686</v>
+        <v>0.2838813294403864</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04356949229893305</v>
+        <v>0.03523317733323548</v>
       </c>
       <c r="AC2">
-        <v>-0.04356949229893305</v>
+        <v>-0.03523317733323548</v>
       </c>
       <c r="AD2">
-        <v>1746.2</v>
+        <v>1163.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1746.2</v>
+        <v>1163.5</v>
       </c>
       <c r="AG2">
-        <v>1745.997</v>
+        <v>1163.494</v>
       </c>
       <c r="AH2">
-        <v>0.7467499144714335</v>
+        <v>0.7981204554808616</v>
       </c>
       <c r="AI2">
-        <v>0.8339860540643805</v>
+        <v>0.8569639832068939</v>
       </c>
       <c r="AJ2">
-        <v>0.7467279275441718</v>
+        <v>0.798119624583446</v>
       </c>
       <c r="AK2">
-        <v>0.8339699569687957</v>
+        <v>0.8569633510938399</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0242</v>
+        <v>-0.0299</v>
       </c>
       <c r="E3">
-        <v>0.0443</v>
+        <v>-0.0741</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.7</v>
+        <v>7.86</v>
       </c>
       <c r="L3">
-        <v>0.1497267759562841</v>
+        <v>0.1070844686648501</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13.393</v>
       </c>
       <c r="N3">
-        <v>0.07349938750510412</v>
+        <v>0.08423270440251572</v>
       </c>
       <c r="O3">
-        <v>1.313868613138686</v>
+        <v>1.703944020356234</v>
       </c>
       <c r="P3">
-        <v>18</v>
+        <v>13.393</v>
       </c>
       <c r="Q3">
-        <v>0.07349938750510412</v>
+        <v>0.08423270440251572</v>
       </c>
       <c r="R3">
-        <v>1.313868613138686</v>
+        <v>1.703944020356234</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,52 +764,52 @@
         <v>0.006</v>
       </c>
       <c r="V3">
-        <v>2.449979583503471e-05</v>
+        <v>3.773584905660378e-05</v>
       </c>
       <c r="W3">
-        <v>0.2271973466003317</v>
+        <v>0.07507163323782234</v>
       </c>
       <c r="X3">
-        <v>0.03801457019790828</v>
+        <v>0.03005133547844983</v>
       </c>
       <c r="Y3">
-        <v>0.1891827764024234</v>
+        <v>0.04502029775937252</v>
       </c>
       <c r="Z3">
-        <v>0.4355131201302255</v>
+        <v>0.2208887310634559</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03927761923813931</v>
+        <v>0.02922580070869248</v>
       </c>
       <c r="AC3">
-        <v>-0.03927761923813931</v>
+        <v>-0.02922580070869248</v>
       </c>
       <c r="AD3">
-        <v>227.6</v>
+        <v>177.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>227.6</v>
+        <v>177.4</v>
       </c>
       <c r="AG3">
-        <v>227.594</v>
+        <v>177.394</v>
       </c>
       <c r="AH3">
-        <v>0.4816931216931217</v>
+        <v>0.5273483947681332</v>
       </c>
       <c r="AI3">
-        <v>0.6849232621125488</v>
+        <v>0.6446220930232559</v>
       </c>
       <c r="AJ3">
-        <v>0.4816865399348986</v>
+        <v>0.5273399644464527</v>
       </c>
       <c r="AK3">
-        <v>0.6849175729925909</v>
+        <v>0.644614344789494</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Societe d'Equipement Domestique et Menager (EQDOM) S.A (CBSE:EQD)</t>
+          <t>Maroc Leasing S.A. (CBSE:MLE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.07980000000000001</v>
+        <v>-0.00145</v>
       </c>
       <c r="E4">
-        <v>-0.0329</v>
+        <v>-0.0285</v>
       </c>
       <c r="G4">
-        <v>0.001462068965517241</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -853,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.3</v>
+        <v>5.3</v>
       </c>
       <c r="L4">
-        <v>0.06114942528735633</v>
+        <v>0.01714655451310255</v>
       </c>
       <c r="M4">
-        <v>13.6</v>
+        <v>4.58</v>
       </c>
       <c r="N4">
-        <v>0.05918189730200173</v>
+        <v>0.03385070214338507</v>
       </c>
       <c r="O4">
-        <v>1.022556390977444</v>
+        <v>0.8641509433962264</v>
       </c>
       <c r="P4">
-        <v>13.6</v>
+        <v>4.58</v>
       </c>
       <c r="Q4">
-        <v>0.05918189730200173</v>
+        <v>0.03385070214338507</v>
       </c>
       <c r="R4">
-        <v>1.022556390977444</v>
+        <v>0.8641509433962264</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,179 +883,60 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0008572671888598781</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.08750000000000001</v>
+        <v>0.05735930735930735</v>
       </c>
       <c r="X4">
-        <v>0.05117465690787396</v>
+        <v>0.07998825816138311</v>
       </c>
       <c r="Y4">
-        <v>0.03632534309212605</v>
+        <v>-0.02262895080207575</v>
       </c>
       <c r="Z4">
-        <v>0.3044176245907857</v>
+        <v>0.3045020195054675</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04356949229893305</v>
+        <v>0.04124055395777848</v>
       </c>
       <c r="AC4">
-        <v>-0.04356949229893305</v>
+        <v>-0.04124055395777848</v>
       </c>
       <c r="AD4">
-        <v>595.9</v>
+        <v>986.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>595.9</v>
+        <v>986.1</v>
       </c>
       <c r="AG4">
-        <v>595.703</v>
+        <v>986.1</v>
       </c>
       <c r="AH4">
-        <v>0.7216906866900811</v>
+        <v>0.8793472445157838</v>
       </c>
       <c r="AI4">
-        <v>0.7983654876741694</v>
+        <v>0.9109468822170901</v>
       </c>
       <c r="AJ4">
-        <v>0.7216242702933848</v>
+        <v>0.8793472445157838</v>
       </c>
       <c r="AK4">
-        <v>0.7983122555122399</v>
+        <v>0.9109468822170901</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Maroc Leasing S.A. (CBSE:MLE)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.00158</v>
-      </c>
-      <c r="E5">
-        <v>0.0625</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>7.62</v>
-      </c>
-      <c r="L5">
-        <v>0.02397734424166142</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>-0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>-0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.08457269700332964</v>
-      </c>
-      <c r="X5">
-        <v>0.09277747702019321</v>
-      </c>
-      <c r="Y5">
-        <v>-0.008204780016863561</v>
-      </c>
-      <c r="Z5">
-        <v>0.2987122849891908</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.04652644878482103</v>
-      </c>
-      <c r="AC5">
-        <v>-0.04652644878482103</v>
-      </c>
-      <c r="AD5">
-        <v>922.7</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>922.7</v>
-      </c>
-      <c r="AG5">
-        <v>922.7</v>
-      </c>
-      <c r="AH5">
-        <v>0.8870409536627571</v>
-      </c>
-      <c r="AI5">
-        <v>0.908974485272387</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8870409536627571</v>
-      </c>
-      <c r="AK5">
-        <v>0.908974485272387</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
         <v>0</v>
       </c>
     </row>
